--- a/文件路径说明.xlsx
+++ b/文件路径说明.xlsx
@@ -1,137 +1,135 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowWidth="21495" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>文件路径说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪屏页面</t>
+  </si>
+  <si>
+    <t>lead_img.html</t>
   </si>
   <si>
     <t>登录首次绑定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login.html</t>
   </si>
   <si>
     <t>找回密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>findPassword.html</t>
   </si>
   <si>
     <t>首页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index.html</t>
   </si>
   <si>
     <t>报表模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic.html</t>
+  </si>
+  <si>
+    <t>滑动切换—用户信息—收藏</t>
+  </si>
+  <si>
+    <t>collection.html</t>
   </si>
   <si>
     <t>滑动切换—用户信息—公告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动切换—用户信息—收藏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice.html</t>
+  </si>
+  <si>
+    <t>滑动切换—用户信息—公告—详情</t>
+  </si>
+  <si>
+    <t>noticeInformation.html</t>
   </si>
   <si>
     <t>滑动切换—用户信息—设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set.html</t>
+  </si>
+  <si>
+    <t>滑动切换—用户信息—设置—切换渠道</t>
+  </si>
+  <si>
+    <t>toggleLine.html</t>
+  </si>
+  <si>
+    <t>滑动切换—用户信息—书签</t>
+  </si>
+  <si>
+    <t>bookmark.html</t>
+  </si>
+  <si>
+    <t>滑动切换—用户信息—信息</t>
+  </si>
+  <si>
+    <t>message.html</t>
+  </si>
+  <si>
+    <t>滑动切换—用户信息—信息—详情</t>
+  </si>
+  <si>
+    <t>messageInformation.html</t>
+  </si>
+  <si>
+    <t>滑动切换—用户信息—信息—提问</t>
+  </si>
+  <si>
+    <t>messageAsk.html</t>
+  </si>
+  <si>
+    <t>滑动切换—指标解释</t>
+  </si>
+  <si>
+    <t>explain.html</t>
   </si>
   <si>
     <t>滑动切换—指标解释搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动切换—指标解释</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪屏页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>basic.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>collection.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>explain.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>explainSearch.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>findPassword.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>index.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lead_img.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动切换—用户信息—公告—详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>noticeInformation.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>set.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动切换—用户信息—设置—切换网格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>toggleGrid.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -139,11 +137,169 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,8 +312,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -165,30 +507,312 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -235,7 +859,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -270,7 +894,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -478,135 +1102,168 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="37.375" customWidth="1"/>
     <col min="2" max="2" width="54.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="57" customHeight="1" spans="1:13">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>5</v>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B12" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/文件路径说明.xlsx
+++ b/文件路径说明.xlsx
@@ -120,12 +120,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,96 +142,81 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,24 +230,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,6 +263,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -285,21 +279,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -314,37 +300,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,145 +468,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,6 +485,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -519,6 +508,50 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,21 +571,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -567,200 +585,161 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1107,7 +1086,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1214,34 +1193,34 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" t="s">
         <v>28</v>
       </c>
     </row>

--- a/文件路径说明.xlsx
+++ b/文件路径说明.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>文件路径说明</t>
   </si>
@@ -47,6 +47,12 @@
   </si>
   <si>
     <t>basic.html</t>
+  </si>
+  <si>
+    <t>报表模板(月)</t>
+  </si>
+  <si>
+    <t>basic_month.html</t>
   </si>
   <si>
     <t>滑动切换—用户信息—收藏</t>
@@ -120,12 +126,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,81 +148,81 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,9 +244,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,44 +284,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,19 +313,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF99FF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,13 +475,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,139 +493,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,6 +516,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -512,13 +540,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,30 +579,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -585,16 +593,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -603,142 +622,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -792,6 +814,11 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <colors>
+    <mruColors>
+      <color rgb="0099FF99"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1083,10 +1110,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1112,19 +1139,20 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1132,7 +1160,7 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1140,28 +1168,28 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
@@ -1169,34 +1197,34 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
+      <c r="A12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1238,6 +1266,14 @@
       </c>
       <c r="B17" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/文件路径说明.xlsx
+++ b/文件路径说明.xlsx
@@ -1110,10 +1110,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1192,7 +1192,7 @@
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       <c r="A12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1232,7 +1232,7 @@
       <c r="A13" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1240,7 +1240,7 @@
       <c r="A14" t="s">
         <v>25</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1248,15 +1248,15 @@
       <c r="A15" t="s">
         <v>27</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
+      <c r="A16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1269,12 +1269,15 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="A18" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B18" t="s">
         <v>34</v>
       </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文件路径说明.xlsx
+++ b/文件路径说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10425"/>
+    <workbookView windowWidth="21495" windowHeight="10005"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -126,10 +126,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -155,7 +155,121 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,129 +284,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,25 +319,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,151 +493,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,6 +504,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -557,45 +587,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -604,16 +595,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -622,146 +622,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1113,7 +1112,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1184,12 +1183,12 @@
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1197,7 +1196,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
@@ -1205,10 +1204,10 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1221,7 +1220,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1256,7 +1255,7 @@
       <c r="A16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>30</v>
       </c>
     </row>
